--- a/data/baseline+diary/030_-_Full_Utregning.xlsx
+++ b/data/baseline+diary/030_-_Full_Utregning.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deltakere (complete)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/saa054_uit_no/Documents/0 - Forskerlinjen/.2--MW_Sleep-Article/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD48100-9288-491F-AE27-C2CEA2815C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{3AD48100-9288-491F-AE27-C2CEA2815C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCE688F-B6C0-4F6B-8E15-F2D738E46DAF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{AD6D089E-9814-4872-BBFB-296E4CC5E2AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AD6D089E-9814-4872-BBFB-296E4CC5E2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="4" r:id="rId1"/>
     <sheet name="Sleep Quiz" sheetId="1" r:id="rId2"/>
     <sheet name="Sleep Diary" sheetId="3" r:id="rId3"/>
-    <sheet name="PANAS" sheetId="2" r:id="rId4"/>
-    <sheet name="Feedback-comments" sheetId="5" r:id="rId5"/>
+    <sheet name="sleepdiary2" sheetId="6" r:id="rId4"/>
+    <sheet name="PANAS" sheetId="2" r:id="rId5"/>
+    <sheet name="Feedback-comments" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="316">
   <si>
     <t>2 - Fatigue</t>
   </si>
@@ -1859,6 +1860,30 @@
   </si>
   <si>
     <t>nei, søvning</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q8</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2264,7 +2289,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2281,11 +2305,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2294,12 +2317,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2319,11 +2340,33 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2352,14 +2395,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -2378,13 +2414,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2432,29 +2461,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2474,7 +2480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2776,31 +2782,30 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="60" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="58" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="37">
         <v>30</v>
       </c>
@@ -2808,12 +2813,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="37">
         <v>41</v>
       </c>
@@ -2821,12 +2825,11 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="37">
         <v>2</v>
       </c>
@@ -2834,12 +2837,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="37">
         <v>0</v>
       </c>
@@ -2847,12 +2849,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="37">
         <v>0</v>
       </c>
@@ -2860,78 +2861,73 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="90">
+      <c r="C7" s="45"/>
+      <c r="D7" s="86">
         <v>44581</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="37">
         <v>2</v>
       </c>
       <c r="E8" s="15">
         <v>38</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="74">
         <f>((E8/0.6)/100)+D8</f>
         <v>2.6333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="90">
+      <c r="C9" s="45"/>
+      <c r="D9" s="86">
         <v>44588</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="37">
         <v>4</v>
       </c>
       <c r="E10" s="15">
         <v>11</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="74">
         <f>((E10/0.6)/100)+D10</f>
         <v>4.1833333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="44" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="37">
         <v>0</v>
       </c>
@@ -2939,79 +2935,76 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="44" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="37">
         <v>0</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="57" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="44" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="42">
-        <v>0</v>
-      </c>
-      <c r="F13" s="59" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="41">
+        <v>0</v>
+      </c>
+      <c r="F13" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="74">
         <f>IF(ISTEXT(D13)=TRUE,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="37">
         <v>0</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="57" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="61"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="44" t="s">
+      <c r="D15" s="59"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="62"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C17" s="41" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="42">
         <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C18" s="41" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="40" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="15">
@@ -3021,11 +3014,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="44" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="15">
         <v>1</v>
       </c>
@@ -3033,75 +3026,75 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="64"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C21" s="41" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="61">
         <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C22" s="41" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="44" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="64"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C24" s="41" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="61"/>
       <c r="F24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C25" s="49" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="41"/>
       <c r="F25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="44" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="37"/>
       <c r="F26" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="44" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="14">
         <f>SUM(D17:D26)/COUNT(D17:D26)</f>
         <v>0.8</v>
@@ -3110,152 +3103,152 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="47" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="68"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="44" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="65"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="44" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="45"/>
+      <c r="D30" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="44" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B32" s="44" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
       <c r="M32" s="37"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="47" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="68"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="65"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
       <c r="M34" s="37"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="44" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
       <c r="M35" s="37"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B36" s="44" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B37" s="44" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="51" t="s">
+      <c r="C37" s="45"/>
+      <c r="D37" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
       <c r="M37" s="37"/>
     </row>
   </sheetData>
@@ -3273,39 +3266,39 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="1"/>
-    <col min="9" max="9" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="7.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.1796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="7" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.81640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="3.453125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.453125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.453125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.453125" style="1"/>
+    <col min="27" max="27" width="4.42578125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -3332,14 +3325,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3395,14 +3388,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="54">
-        <v>1</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="53">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52"/>
       <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
@@ -3460,7 +3453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>167</v>
       </c>
@@ -3522,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -3589,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -3657,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -3724,7 +3717,7 @@
       </c>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -3784,14 +3777,14 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="11">
         <v>9</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="67">
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -3840,7 +3833,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3893,14 +3886,13 @@
       <c r="Z10"/>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="71"/>
       <c r="E11" s="8" t="s">
         <v>43</v>
       </c>
@@ -3940,14 +3932,14 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="69">
-        <v>0</v>
-      </c>
-      <c r="C12" s="53"/>
+      <c r="B12" s="66">
+        <v>0</v>
+      </c>
+      <c r="C12" s="52"/>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
@@ -3972,7 +3964,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="39" t="s">
+      <c r="Q12" s="38" t="s">
         <v>46</v>
       </c>
       <c r="R12" s="24">
@@ -3988,7 +3980,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="N13" s="10" t="s">
         <v>48</v>
       </c>
@@ -3999,7 +3991,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="38" t="s">
         <v>49</v>
       </c>
       <c r="R13" s="24" cm="1">
@@ -4015,7 +4007,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="N14" s="10" t="s">
         <v>51</v>
       </c>
@@ -4026,7 +4018,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="38" t="s">
         <v>52</v>
       </c>
       <c r="R14" s="24">
@@ -4042,7 +4034,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="N15" s="10" t="s">
         <v>54</v>
       </c>
@@ -4053,7 +4045,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="39" t="s">
+      <c r="Q15" s="38" t="s">
         <v>55</v>
       </c>
       <c r="R15" s="24" cm="1">
@@ -4069,7 +4061,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="N16" s="10" t="s">
         <v>57</v>
       </c>
@@ -4080,7 +4072,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="39" t="s">
+      <c r="Q16" s="38" t="s">
         <v>58</v>
       </c>
       <c r="R16" s="24" cm="1">
@@ -4096,7 +4088,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -4110,7 +4102,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="Q17" s="38" t="s">
         <v>61</v>
       </c>
       <c r="R17" s="24">
@@ -4126,7 +4118,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N18" s="10" t="s">
         <v>63</v>
       </c>
@@ -4137,7 +4129,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="39" t="s">
+      <c r="Q18" s="38" t="s">
         <v>64</v>
       </c>
       <c r="R18" s="24" cm="1">
@@ -4153,7 +4145,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N19" s="10" t="s">
         <v>66</v>
       </c>
@@ -4180,7 +4172,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N20" s="10" t="s">
         <v>69</v>
       </c>
@@ -4203,7 +4195,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N21" s="10" t="s">
         <v>72</v>
       </c>
@@ -4226,7 +4218,7 @@
       </c>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="N22" s="10" t="s">
         <v>74</v>
       </c>
@@ -4247,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="N23" s="10" t="s">
         <v>76</v>
       </c>
@@ -4263,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>170</v>
       </c>
@@ -4271,1178 +4263,1173 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="55" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="55"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+      <c r="B41" s="54"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="40" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="58" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="40" t="s">
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="40" t="s">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="40" t="s">
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="40" t="s">
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="58" t="s">
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="56"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
+      <c r="C63" s="55"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="55" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A65" s="40" t="s">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A66" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A67" s="40" t="s">
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A67" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A68" s="40" t="s">
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A68" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A69" s="40" t="s">
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A69" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A70" s="40" t="s">
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A70" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A72" s="58" t="s">
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A72" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A73" s="40" t="s">
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A73" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A74" s="40" t="s">
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A74" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A75" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A76" s="40" t="s">
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A76" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A77" s="40" t="s">
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A77" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="56"/>
-      <c r="S77" s="56"/>
-      <c r="T77" s="56"/>
-      <c r="U77" s="56"/>
-      <c r="V77" s="56"/>
-      <c r="W77" s="56"/>
-      <c r="X77" s="56"/>
-      <c r="Y77" s="56"/>
-      <c r="Z77" s="56"/>
-      <c r="AA77" s="56"/>
-      <c r="AB77" s="56"/>
-      <c r="AC77" s="56"/>
-      <c r="AD77" s="56"/>
-      <c r="AE77" s="56"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A78" s="40" t="s">
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="55"/>
+      <c r="R77" s="55"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="55"/>
+      <c r="U77" s="55"/>
+      <c r="V77" s="55"/>
+      <c r="W77" s="55"/>
+      <c r="X77" s="55"/>
+      <c r="Y77" s="55"/>
+      <c r="Z77" s="55"/>
+      <c r="AA77" s="55"/>
+      <c r="AB77" s="55"/>
+      <c r="AC77" s="55"/>
+      <c r="AD77" s="55"/>
+      <c r="AE77" s="55"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A78" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="56"/>
-      <c r="S78" s="56"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A79" s="40" t="s">
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="55"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A80" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A81" s="40" t="s">
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A84" s="40" t="s">
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A85" s="40" t="s">
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="55"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="55"/>
+      <c r="X84" s="55"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A86" s="40" t="s">
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A87" s="40" t="s">
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A88" s="40" t="s">
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A88" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A89" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A90" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" s="40" t="s">
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A91" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A92" s="40" t="s">
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A92" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A93" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" s="39" t="s">
         <v>228</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="40" t="s">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="56"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A96" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="56"/>
-      <c r="K96" s="56"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="56"/>
-      <c r="R96" s="56"/>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="55"/>
+      <c r="Q96" s="55"/>
+      <c r="R96" s="55"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A97" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="56"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A98" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="56"/>
-      <c r="J98" s="56"/>
-      <c r="K98" s="56"/>
-      <c r="L98" s="56"/>
-      <c r="M98" s="56"/>
-      <c r="N98" s="56"/>
-      <c r="O98" s="56"/>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A99" s="40" t="s">
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A99" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="56"/>
-      <c r="K99" s="56"/>
-      <c r="L99" s="56"/>
-      <c r="M99" s="56"/>
-      <c r="N99" s="56"/>
-      <c r="O99" s="56"/>
-      <c r="P99" s="56"/>
-      <c r="Q99" s="56"/>
-      <c r="R99" s="56"/>
-      <c r="S99" s="56"/>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A101" s="58" t="s">
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+      <c r="Q99" s="55"/>
+      <c r="R99" s="55"/>
+      <c r="S99" s="55"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A101" s="56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A102" s="40" t="s">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A102" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="56"/>
-      <c r="N102" s="56"/>
-      <c r="O102" s="56"/>
-      <c r="P102" s="56"/>
-      <c r="Q102" s="56"/>
-      <c r="R102" s="56"/>
-      <c r="S102" s="56"/>
-      <c r="T102" s="56"/>
-      <c r="U102" s="56"/>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A103" s="40" t="s">
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="55"/>
+      <c r="M102" s="55"/>
+      <c r="N102" s="55"/>
+      <c r="O102" s="55"/>
+      <c r="P102" s="55"/>
+      <c r="Q102" s="55"/>
+      <c r="R102" s="55"/>
+      <c r="S102" s="55"/>
+      <c r="T102" s="55"/>
+      <c r="U102" s="55"/>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A103" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="56"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="56"/>
-      <c r="N103" s="56"/>
-      <c r="O103" s="56"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="56"/>
-      <c r="R103" s="56"/>
-      <c r="S103" s="56"/>
-      <c r="T103" s="56"/>
-      <c r="U103" s="56"/>
-      <c r="V103" s="56"/>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="55"/>
+      <c r="M103" s="55"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="55"/>
+      <c r="P103" s="55"/>
+      <c r="Q103" s="55"/>
+      <c r="R103" s="55"/>
+      <c r="S103" s="55"/>
+      <c r="T103" s="55"/>
+      <c r="U103" s="55"/>
+      <c r="V103" s="55"/>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A104" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B104" s="56" t="s">
+      <c r="B104" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="56"/>
-      <c r="L104" s="56"/>
-      <c r="M104" s="56"/>
-      <c r="N104" s="56"/>
-      <c r="O104" s="56"/>
-      <c r="P104" s="56"/>
-      <c r="Q104" s="56"/>
-      <c r="R104" s="56"/>
-      <c r="S104" s="56"/>
-      <c r="T104" s="56"/>
-      <c r="U104" s="56"/>
-      <c r="V104" s="56"/>
-      <c r="W104" s="56"/>
-      <c r="X104" s="56"/>
-      <c r="Y104" s="56"/>
-      <c r="Z104" s="56"/>
-      <c r="AA104" s="56"/>
-      <c r="AB104" s="56"/>
-      <c r="AC104" s="56"/>
-      <c r="AD104" s="56"/>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A105" s="40" t="s">
+      <c r="C104" s="55"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="55"/>
+      <c r="K104" s="55"/>
+      <c r="L104" s="55"/>
+      <c r="M104" s="55"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="55"/>
+      <c r="P104" s="55"/>
+      <c r="Q104" s="55"/>
+      <c r="R104" s="55"/>
+      <c r="S104" s="55"/>
+      <c r="T104" s="55"/>
+      <c r="U104" s="55"/>
+      <c r="V104" s="55"/>
+      <c r="W104" s="55"/>
+      <c r="X104" s="55"/>
+      <c r="Y104" s="55"/>
+      <c r="Z104" s="55"/>
+      <c r="AA104" s="55"/>
+      <c r="AB104" s="55"/>
+      <c r="AC104" s="55"/>
+      <c r="AD104" s="55"/>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A105" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="56" t="s">
+      <c r="B105" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="56"/>
-      <c r="N105" s="56"/>
-      <c r="O105" s="56"/>
-      <c r="P105" s="56"/>
-      <c r="Q105" s="56"/>
-      <c r="R105" s="56"/>
-      <c r="S105" s="56"/>
-      <c r="T105" s="56"/>
-      <c r="U105" s="56"/>
-      <c r="V105" s="56"/>
-      <c r="W105" s="56"/>
-      <c r="X105" s="56"/>
-      <c r="Y105" s="56"/>
-      <c r="Z105" s="56"/>
-      <c r="AA105" s="56"/>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A106" s="40" t="s">
+      <c r="C105" s="55"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="55"/>
+      <c r="M105" s="55"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55"/>
+      <c r="P105" s="55"/>
+      <c r="Q105" s="55"/>
+      <c r="R105" s="55"/>
+      <c r="S105" s="55"/>
+      <c r="T105" s="55"/>
+      <c r="U105" s="55"/>
+      <c r="V105" s="55"/>
+      <c r="W105" s="55"/>
+      <c r="X105" s="55"/>
+      <c r="Y105" s="55"/>
+      <c r="Z105" s="55"/>
+      <c r="AA105" s="55"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A106" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
-      <c r="N106" s="56"/>
-      <c r="O106" s="56"/>
-      <c r="P106" s="56"/>
-      <c r="Q106" s="56"/>
-      <c r="R106" s="57"/>
-      <c r="S106" s="57"/>
-      <c r="T106" s="57"/>
-      <c r="U106" s="57"/>
-      <c r="V106" s="57"/>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A107" s="40" t="s">
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="55"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="55"/>
+      <c r="M106" s="55"/>
+      <c r="N106" s="55"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="55"/>
+      <c r="Q106" s="55"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A107" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
-      <c r="O107" s="56"/>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="56"/>
-      <c r="R107" s="56"/>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A108" s="40" t="s">
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="55"/>
+      <c r="L107" s="55"/>
+      <c r="M107" s="55"/>
+      <c r="N107" s="55"/>
+      <c r="O107" s="55"/>
+      <c r="P107" s="55"/>
+      <c r="Q107" s="55"/>
+      <c r="R107" s="55"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A108" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="56"/>
-      <c r="O108" s="56"/>
-      <c r="P108" s="56"/>
-      <c r="Q108" s="56"/>
-      <c r="R108" s="56"/>
-      <c r="S108" s="56"/>
-      <c r="T108" s="56"/>
-      <c r="U108" s="56"/>
-      <c r="V108" s="56"/>
-      <c r="W108" s="56"/>
-      <c r="X108" s="56"/>
-      <c r="Y108" s="56"/>
-      <c r="Z108" s="56"/>
-      <c r="AA108" s="56"/>
-    </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A110" s="58" t="s">
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55"/>
+      <c r="K108" s="55"/>
+      <c r="L108" s="55"/>
+      <c r="M108" s="55"/>
+      <c r="N108" s="55"/>
+      <c r="O108" s="55"/>
+      <c r="P108" s="55"/>
+      <c r="Q108" s="55"/>
+      <c r="R108" s="55"/>
+      <c r="S108" s="55"/>
+      <c r="T108" s="55"/>
+      <c r="U108" s="55"/>
+      <c r="V108" s="55"/>
+      <c r="W108" s="55"/>
+      <c r="X108" s="55"/>
+      <c r="Y108" s="55"/>
+      <c r="Z108" s="55"/>
+      <c r="AA108" s="55"/>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A110" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="B110" s="58" t="s">
+      <c r="B110" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A112" s="58" t="s">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A112" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="B112" s="58"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A113" s="40" t="s">
+      <c r="B112" s="56"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A113" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="B113" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="56"/>
-      <c r="P113" s="56"/>
-      <c r="Q113" s="56"/>
-      <c r="R113" s="56"/>
-      <c r="S113" s="56"/>
-      <c r="T113" s="56"/>
-      <c r="U113" s="56"/>
-      <c r="V113" s="56"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A114" s="40" t="s">
+      <c r="C113" s="55"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="55"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="55"/>
+      <c r="P113" s="55"/>
+      <c r="Q113" s="55"/>
+      <c r="R113" s="55"/>
+      <c r="S113" s="55"/>
+      <c r="T113" s="55"/>
+      <c r="U113" s="55"/>
+      <c r="V113" s="55"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A114" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B114" s="56" t="s">
+      <c r="B114" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="56"/>
-      <c r="O114" s="56"/>
-      <c r="P114" s="56"/>
-      <c r="Q114" s="56"/>
-      <c r="R114" s="56"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A115" s="40" t="s">
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="55"/>
+      <c r="L114" s="55"/>
+      <c r="M114" s="55"/>
+      <c r="N114" s="55"/>
+      <c r="O114" s="55"/>
+      <c r="P114" s="55"/>
+      <c r="Q114" s="55"/>
+      <c r="R114" s="55"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A115" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="B115" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="56"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="56"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="56"/>
-      <c r="J115" s="56"/>
-      <c r="K115" s="56"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="56"/>
-      <c r="O115" s="56"/>
-      <c r="P115" s="56"/>
-      <c r="Q115" s="56"/>
-      <c r="R115" s="56"/>
-      <c r="S115" s="56"/>
-      <c r="T115" s="56"/>
-      <c r="U115" s="56"/>
-      <c r="V115" s="56"/>
-      <c r="W115" s="56"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="55"/>
+      <c r="M115" s="55"/>
+      <c r="N115" s="55"/>
+      <c r="O115" s="55"/>
+      <c r="P115" s="55"/>
+      <c r="Q115" s="55"/>
+      <c r="R115" s="55"/>
+      <c r="S115" s="55"/>
+      <c r="T115" s="55"/>
+      <c r="U115" s="55"/>
+      <c r="V115" s="55"/>
+      <c r="W115" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5453,41 +5440,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F439B-9760-4E2D-9273-BA22847E3391}">
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A1:AH63"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="5.08984375" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" customWidth="1"/>
-    <col min="8" max="10" width="4.26953125" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="14" width="5.26953125" customWidth="1"/>
+    <col min="13" max="14" width="5.28515625" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="4.26953125" customWidth="1"/>
-    <col min="17" max="17" width="6.453125" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="5.26953125" customWidth="1"/>
-    <col min="20" max="20" width="8.26953125" customWidth="1"/>
-    <col min="21" max="21" width="10.1796875" customWidth="1"/>
-    <col min="22" max="22" width="3.81640625" customWidth="1"/>
-    <col min="23" max="23" width="13.81640625" customWidth="1"/>
-    <col min="24" max="24" width="11.26953125" customWidth="1"/>
-    <col min="25" max="25" width="13.7265625" customWidth="1"/>
-    <col min="26" max="26" width="12.7265625" customWidth="1"/>
-    <col min="29" max="29" width="7.26953125" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="27">
@@ -5501,7 +5487,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D2" s="28" t="s">
         <v>78</v>
       </c>
@@ -5515,7 +5501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>272</v>
       </c>
@@ -5570,7 +5556,7 @@
       <c r="R3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="68" t="s">
         <v>265</v>
       </c>
       <c r="T3" s="31" t="s">
@@ -5579,9 +5565,21 @@
       <c r="U3" s="31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="79">
+      <c r="W3" t="s">
+        <v>308</v>
+      </c>
+      <c r="X3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
         <v>44207</v>
       </c>
       <c r="B4" s="32">
@@ -5656,9 +5654,21 @@
         <f>Q4*100</f>
         <v>1.0658141036401503E-13</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="79">
+      <c r="W4" s="87">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="87">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
         <v>44208</v>
       </c>
       <c r="B5" s="32">
@@ -5733,10 +5743,22 @@
         <f t="shared" ref="U5:U20" si="10">Q5*100</f>
         <v>19.999999999999929</v>
       </c>
+      <c r="W5" s="87">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="87">
+        <v>0.3125</v>
+      </c>
       <c r="AD5" s="36"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6" s="79">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
         <v>44209</v>
       </c>
       <c r="B6" s="32">
@@ -5811,10 +5833,22 @@
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
+      <c r="W6" s="87">
+        <v>0.96875</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="87">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="AD6" s="36"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="79">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <v>44210</v>
       </c>
       <c r="B7" s="32">
@@ -5889,26 +5923,22 @@
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="W7" t="str">
-        <f>IF(B1=1,"LSD","")</f>
-        <v/>
-      </c>
-      <c r="X7" t="str">
-        <f>IF(B1=1,"Time Slept","")</f>
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <f>IF(B1=1,"Sleep Quality","")</f>
-        <v/>
-      </c>
-      <c r="Z7" s="77" t="str">
-        <f>IF(B1=1,"Missing day(s)","")</f>
-        <v/>
+      <c r="W7" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="88">
+        <v>0.29166666666666669</v>
       </c>
       <c r="AD7" s="36"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="79">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
         <v>44211</v>
       </c>
       <c r="B8" s="32">
@@ -5983,25 +6013,21 @@
         <f t="shared" si="10"/>
         <v>19.999999999999929</v>
       </c>
-      <c r="W8" t="str">
-        <f>IF(B1=1,"DP_NS_AVG","")</f>
-        <v/>
-      </c>
-      <c r="X8" s="36" t="str">
-        <f>IF(B1=1,SUM(O8:O14)/(COUNT(O8:O14)),"")</f>
-        <v/>
-      </c>
-      <c r="Y8" s="36" t="str">
-        <f>IF(B1=1,SUM(S8:S14)/COUNT(S8:S14),"")</f>
-        <v/>
-      </c>
-      <c r="Z8" t="str">
-        <f>IF(B1=1,IF(COUNT(S8:S14)&lt;7,7-COUNT(S8:S14),""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="79">
+      <c r="W8" s="87">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="X8" s="36">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="36">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="87">
+        <v>0.30208333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
         <v>44212</v>
       </c>
       <c r="B9" s="32">
@@ -6074,25 +6100,21 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W9" t="str">
-        <f>IF(B1=1,"DP_P_AVG","")</f>
-        <v/>
-      </c>
-      <c r="X9" s="36" t="str">
-        <f>IF(B1=1,SUM(O15:O17)/(COUNT(O15:O17)),"")</f>
-        <v/>
-      </c>
-      <c r="Y9" s="36" t="str">
-        <f>IF(B1=1,SUM(S15:S17)/COUNT(S15:S17),"")</f>
-        <v/>
-      </c>
-      <c r="Z9" t="str">
-        <f>IF(B1=1,IF(COUNT(S15:S17)&lt;3,3-COUNT(S15:S17),""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="79">
+      <c r="W9" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="X9" s="36">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="87">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
         <v>44213</v>
       </c>
       <c r="B10" s="32">
@@ -6167,25 +6189,34 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W10" t="str">
+      <c r="W10" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="87">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AD10" t="str">
         <f>IF(B1=1,"NS_AVG","")</f>
         <v/>
       </c>
-      <c r="X10" s="36" t="str">
+      <c r="AE10" s="36" t="str">
         <f>IF(B1=1,SUM(O4:O10)/(COUNT(O4:O10)),"")</f>
         <v/>
       </c>
-      <c r="Y10" s="36" t="str">
+      <c r="AF10" s="36" t="str">
         <f>IF(B1=1,SUM(S4:S10)/COUNT(S4:S10),"")</f>
         <v/>
       </c>
-      <c r="Z10" t="str">
+      <c r="AG10" t="str">
         <f>IF(B1=1,IF(COUNT(S4:S10)&lt;7,7-COUNT(S4:S10),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="79">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
         <v>44214</v>
       </c>
       <c r="B11" s="32">
@@ -6260,25 +6291,37 @@
         <f t="shared" si="10"/>
         <v>17.999999999999989</v>
       </c>
-      <c r="W11" t="str">
+      <c r="W11" s="87">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="87">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AD11" t="str">
         <f>IF(B1=0,"ESD","")</f>
         <v>ESD</v>
       </c>
-      <c r="X11" t="str">
+      <c r="AE11" t="str">
         <f>IF(B1=0,"Time Slept","")</f>
         <v>Time Slept</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="AF11" t="str">
         <f>IF(B1=0,"Sleep Quality","")</f>
         <v>Sleep Quality</v>
       </c>
-      <c r="Z11" s="77" t="str">
+      <c r="AG11" s="73" t="str">
         <f>IF(B1=0,"Missing day(s)","")</f>
         <v>Missing day(s)</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="79">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
         <v>44215</v>
       </c>
       <c r="B12" s="32">
@@ -6353,25 +6396,37 @@
         <f t="shared" si="10"/>
         <v>49.000000000000085</v>
       </c>
-      <c r="W12" t="str">
+      <c r="W12" s="87">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="87">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="AD12" t="str">
         <f>IF(B1=0,"PD_NS_AVG","")</f>
         <v>PD_NS_AVG</v>
       </c>
-      <c r="X12">
+      <c r="AE12">
         <f>IF(B1=0,SUM(O4:O10)/COUNT(O4:O10),"")</f>
         <v>8.0595238095238102</v>
       </c>
-      <c r="Y12">
+      <c r="AF12">
         <f>IF(B1=0,SUM(S4:S10)/COUNT(S4:S10),"")</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="AG12" t="str">
         <f>IF(B$1=0,IF(COUNT(L4:L10)&lt;7,7-COUNT(L4:L10),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="79">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
         <v>44216</v>
       </c>
       <c r="B13" s="32">
@@ -6446,25 +6501,37 @@
         <f t="shared" si="10"/>
         <v>9.0000000000000746</v>
       </c>
-      <c r="W13" t="str">
+      <c r="W13" s="87">
+        <v>6.25E-2</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="87">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="AD13" t="str">
         <f>IF(B1=0,"DP_PSD_AVG","")</f>
         <v>DP_PSD_AVG</v>
       </c>
-      <c r="X13">
+      <c r="AE13">
         <f>IF(B1=0,SUM(O11:O13)/(COUNT(O11:O13)),"")</f>
         <v>4.7555555555555564</v>
       </c>
-      <c r="Y13">
+      <c r="AF13">
         <f>IF(B1=0,SUM(S11:S13)/COUNT(S11:S13),"")</f>
         <v>4</v>
       </c>
-      <c r="Z13" t="str">
+      <c r="AG13" t="str">
         <f>IF(B$1=0,IF(COUNT(S11:S13)&lt;3,3-COUNT(S11:S13),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A14" s="79">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
         <v>44217</v>
       </c>
       <c r="B14" s="32">
@@ -6526,25 +6593,28 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W14" t="str">
+      <c r="W14" s="87">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="AD14" t="str">
         <f>IF(B1=0,"NS_AVG","")</f>
         <v>NS_AVG</v>
       </c>
-      <c r="X14">
+      <c r="AE14">
         <f>IF(B1=0,SUM(O14:O20)/(COUNT(O14:O20)),"")</f>
         <v>7.0250000000000012</v>
       </c>
-      <c r="Y14">
+      <c r="AF14">
         <f>IF(B1=0,SUM(S14:S20)/COUNT(S14:S20),"")</f>
         <v>3.8571428571428572</v>
       </c>
-      <c r="Z14">
+      <c r="AG14">
         <f>IF(B$1=0,IF(COUNT(L14:L20)&lt;7,7-COUNT(L14:L20),""),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15" s="79">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
         <v>44218</v>
       </c>
       <c r="B15" s="32">
@@ -6619,26 +6689,38 @@
         <f t="shared" si="10"/>
         <v>59.00000000000005</v>
       </c>
-      <c r="W15" s="86" t="s">
+      <c r="W15" s="87">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="87">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AD15" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="X15" s="88" cm="1">
-        <f t="array" ref="X15">_xlfn.IFS(B1=0,X12-X13,B1=1,X8-X9)</f>
+      <c r="AE15" s="84" cm="1">
+        <f t="array" ref="AE15">_xlfn.IFS(B1=0,AE12-AE13,B1=1,X8-X9)</f>
         <v>3.3039682539682538</v>
       </c>
-      <c r="Y15" s="89" t="s">
+      <c r="AF15" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="Z15" s="88" cm="1">
-        <f t="array" ref="Z15">_xlfn.IFS(B1=0,X14-X13,B1=1,X10-X9)</f>
+      <c r="AG15" s="84" cm="1">
+        <f t="array" ref="AG15">_xlfn.IFS(B1=0,AE14-AE13,B1=1,AE10-X9)</f>
         <v>2.2694444444444448</v>
       </c>
-      <c r="AA15" s="87" t="s">
+      <c r="AH15" s="83" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A16" s="79">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="75">
         <v>44219</v>
       </c>
       <c r="B16" s="32">
@@ -6713,12 +6795,24 @@
         <f t="shared" si="10"/>
         <v>3.9999999999999853</v>
       </c>
-      <c r="X16" t="s">
+      <c r="W16" s="87">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="87">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AE16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="79">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
         <v>44220</v>
       </c>
       <c r="B17" s="32">
@@ -6793,12 +6887,24 @@
         <f t="shared" si="10"/>
         <v>29.000000000000053</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="87">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>30</v>
+      </c>
+      <c r="Z17" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AD17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="79">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="75">
         <v>44221</v>
       </c>
       <c r="B18" s="32">
@@ -6873,12 +6979,24 @@
         <f t="shared" si="10"/>
         <v>3.9999999999999853</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="87">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="87">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AD18" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="79">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="75">
         <v>44222</v>
       </c>
       <c r="B19" s="32">
@@ -6953,12 +7071,24 @@
         <f t="shared" si="10"/>
         <v>49.000000000000142</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="87">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="87">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AD19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="79">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="75">
         <v>44223</v>
       </c>
       <c r="B20" s="32">
@@ -7033,13 +7163,25 @@
         <f t="shared" si="10"/>
         <v>44.000000000000057</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W20" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="87">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>162</v>
       </c>
@@ -7047,7 +7189,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>161</v>
       </c>
@@ -7055,17 +7197,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="32" t="str">
         <f>IF(C15="ESD",15,"")</f>
         <v/>
@@ -7127,44 +7269,39 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="X8:Y10">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(X8))&gt;0</formula>
+  <conditionalFormatting sqref="AD10 AD12:AD14">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="5">
+      <formula>LEN(TRIM(AD10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W7:Z7 W8:W10">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="6">
-      <formula>LEN(TRIM(W7))&gt;0</formula>
+  <conditionalFormatting sqref="AD11:AG11">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
+      <formula>LEN(TRIM(AD11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12:W14 W11:Y11">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(W11))&gt;0</formula>
+  <conditionalFormatting sqref="AE10:AF10">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="9">
+      <formula>LEN(TRIM(AE10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:Z10 Z12:Z14">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
-      <formula>LEN(TRIM(Z8))&gt;0</formula>
+  <conditionalFormatting sqref="AE12:AF14">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(AE12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(Z11))&gt;0</formula>
+  <conditionalFormatting sqref="AE12:AG14">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(AE12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(AA12))&gt;0</formula>
+  <conditionalFormatting sqref="AG10 AG12:AG14">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="8">
+      <formula>LEN(TRIM(AG10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12:Y14">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(X12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X12:Z14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(X12))&gt;0</formula>
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(AH12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7173,6 +7310,894 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F92CADF-9712-40D8-84C0-0234FB50157C}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="90">
+        <v>44207</v>
+      </c>
+      <c r="B2" s="92">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="C2" s="92">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D2" s="91">
+        <v>0</v>
+      </c>
+      <c r="E2" s="91">
+        <v>2</v>
+      </c>
+      <c r="F2" s="91">
+        <v>15</v>
+      </c>
+      <c r="G2" s="92">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="H2" s="92">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="I2" s="91">
+        <v>5</v>
+      </c>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="90">
+        <v>44208</v>
+      </c>
+      <c r="B3" s="92">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="C3" s="92">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D3" s="91">
+        <v>0</v>
+      </c>
+      <c r="E3" s="91">
+        <v>1</v>
+      </c>
+      <c r="F3" s="91">
+        <v>45</v>
+      </c>
+      <c r="G3" s="92">
+        <v>0.3125</v>
+      </c>
+      <c r="H3" s="92">
+        <v>0.3125</v>
+      </c>
+      <c r="I3" s="91">
+        <v>4</v>
+      </c>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="90">
+        <v>44209</v>
+      </c>
+      <c r="B4" s="92">
+        <v>0.96875</v>
+      </c>
+      <c r="C4" s="92">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D4" s="91">
+        <v>0</v>
+      </c>
+      <c r="E4" s="91">
+        <v>0</v>
+      </c>
+      <c r="F4" s="91">
+        <v>0</v>
+      </c>
+      <c r="G4" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H4" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I4" s="91">
+        <v>5</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="90">
+        <v>44210</v>
+      </c>
+      <c r="B5" s="92">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C5" s="92">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="D5" s="91">
+        <v>0</v>
+      </c>
+      <c r="E5" s="91">
+        <v>0</v>
+      </c>
+      <c r="F5" s="91">
+        <v>0</v>
+      </c>
+      <c r="G5" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H5" s="93">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I5" s="91">
+        <v>5</v>
+      </c>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="90">
+        <v>44211</v>
+      </c>
+      <c r="B6" s="92">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="C6" s="92">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D6" s="91">
+        <v>0</v>
+      </c>
+      <c r="E6" s="94">
+        <v>1</v>
+      </c>
+      <c r="F6" s="94">
+        <v>15</v>
+      </c>
+      <c r="G6" s="92">
+        <v>0.3125</v>
+      </c>
+      <c r="H6" s="92">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="I6" s="91">
+        <v>5</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="90">
+        <v>44212</v>
+      </c>
+      <c r="B7" s="92">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C7" s="92">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D7" s="91">
+        <v>0</v>
+      </c>
+      <c r="E7" s="94">
+        <v>2</v>
+      </c>
+      <c r="F7" s="94">
+        <v>10</v>
+      </c>
+      <c r="G7" s="92">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H7" s="92">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="90">
+        <v>44213</v>
+      </c>
+      <c r="B8" s="92">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C8" s="92">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D8" s="91">
+        <v>0</v>
+      </c>
+      <c r="E8" s="91">
+        <v>1</v>
+      </c>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H8" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I8" s="91">
+        <v>5</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="90">
+        <v>44214</v>
+      </c>
+      <c r="B9" s="92">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="C9" s="92">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="D9" s="91">
+        <v>1</v>
+      </c>
+      <c r="E9" s="91">
+        <v>2</v>
+      </c>
+      <c r="F9" s="91">
+        <v>5</v>
+      </c>
+      <c r="G9" s="92">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="H9" s="92">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="I9" s="91">
+        <v>5</v>
+      </c>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="90">
+        <v>44215</v>
+      </c>
+      <c r="B10" s="92">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C10" s="92">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="91">
+        <v>1</v>
+      </c>
+      <c r="E10" s="91">
+        <v>2</v>
+      </c>
+      <c r="F10" s="91">
+        <v>5</v>
+      </c>
+      <c r="G10" s="92">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="H10" s="92">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="I10" s="91">
+        <v>5</v>
+      </c>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="90">
+        <v>44216</v>
+      </c>
+      <c r="B11" s="92">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C11" s="92">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D11" s="91">
+        <v>1</v>
+      </c>
+      <c r="E11" s="91">
+        <v>2</v>
+      </c>
+      <c r="F11" s="91">
+        <v>10</v>
+      </c>
+      <c r="G11" s="92">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H11" s="92">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="I11" s="91">
+        <v>5</v>
+      </c>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="90">
+        <v>44217</v>
+      </c>
+      <c r="B12" s="92">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91">
+        <v>5</v>
+      </c>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="90">
+        <v>44218</v>
+      </c>
+      <c r="B13" s="92">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C13" s="92">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D13" s="91">
+        <v>1</v>
+      </c>
+      <c r="E13" s="91">
+        <v>2</v>
+      </c>
+      <c r="F13" s="91">
+        <v>40</v>
+      </c>
+      <c r="G13" s="92">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H13" s="92">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="I13" s="91">
+        <v>5</v>
+      </c>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="90">
+        <v>44219</v>
+      </c>
+      <c r="B14" s="92">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C14" s="92">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="D14" s="91">
+        <v>1</v>
+      </c>
+      <c r="E14" s="91">
+        <v>2</v>
+      </c>
+      <c r="F14" s="91">
+        <v>10</v>
+      </c>
+      <c r="G14" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H14" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I14" s="91">
+        <v>4</v>
+      </c>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="90">
+        <v>44220</v>
+      </c>
+      <c r="B15" s="92">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C15" s="92">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D15" s="91">
+        <v>1</v>
+      </c>
+      <c r="E15" s="91">
+        <v>3</v>
+      </c>
+      <c r="F15" s="91">
+        <v>30</v>
+      </c>
+      <c r="G15" s="92">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H15" s="92">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I15" s="91">
+        <v>5</v>
+      </c>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="90">
+        <v>44221</v>
+      </c>
+      <c r="B16" s="92">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C16" s="92">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D16" s="91">
+        <v>1</v>
+      </c>
+      <c r="E16" s="91">
+        <v>1</v>
+      </c>
+      <c r="F16" s="91">
+        <v>10</v>
+      </c>
+      <c r="G16" s="92">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H16" s="92">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="I16" s="91">
+        <v>5</v>
+      </c>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="90">
+        <v>44222</v>
+      </c>
+      <c r="B17" s="92">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C17" s="92">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D17" s="91">
+        <v>1</v>
+      </c>
+      <c r="E17" s="91">
+        <v>2</v>
+      </c>
+      <c r="F17" s="91">
+        <v>20</v>
+      </c>
+      <c r="G17" s="92">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="H17" s="92">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="I17" s="91">
+        <v>5</v>
+      </c>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="90">
+        <v>44223</v>
+      </c>
+      <c r="B18" s="92">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C18" s="92">
+        <v>0.96875</v>
+      </c>
+      <c r="D18" s="91">
+        <v>1</v>
+      </c>
+      <c r="E18" s="91">
+        <v>0</v>
+      </c>
+      <c r="F18" s="91">
+        <v>0</v>
+      </c>
+      <c r="G18" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H18" s="92">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I18" s="91">
+        <v>5</v>
+      </c>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A0A131-AB0B-48E7-BA89-4CA72DAFD876}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -7180,19 +8205,19 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="2.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" customWidth="1"/>
-    <col min="12" max="12" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>99</v>
       </c>
@@ -7212,7 +8237,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7226,7 +8251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -7264,7 +8289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -7302,7 +8327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>24</v>
       </c>
@@ -7344,7 +8369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -7370,7 +8395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
@@ -7408,7 +8433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -7450,7 +8475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -7476,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
@@ -7502,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>40</v>
       </c>
@@ -7528,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -7554,7 +8579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
@@ -7580,7 +8605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
@@ -7606,7 +8631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>53</v>
       </c>
@@ -7632,7 +8657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
@@ -7658,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -7684,7 +8709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>62</v>
       </c>
@@ -7710,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
@@ -7736,7 +8761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
@@ -7762,7 +8787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -7788,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>73</v>
       </c>
@@ -7814,7 +8839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>75</v>
       </c>
@@ -7845,40 +8870,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA813570-53F3-4A84-BAEE-DE1DA48FE075}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="77"/>
       <c r="C3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>197</v>
       </c>
       <c r="B4" s="15">
@@ -7888,8 +8913,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="15">
@@ -7899,74 +8924,74 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>274</v>
       </c>
       <c r="B14" s="15">
@@ -7979,8 +9004,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>273</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -7993,34 +9018,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="80" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="77">
         <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>197</v>
       </c>
       <c r="B20" s="15">
@@ -8030,8 +9055,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="15">
@@ -8041,336 +9066,336 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="82"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="44" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="78"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="82"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="73" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="82"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="78"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="82"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="78"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>274</v>
       </c>
       <c r="B30" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>273</v>
       </c>
       <c r="B31" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="60" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="41" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="41" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="41" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="60" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="41" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="41"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="41" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="60" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="58" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="44" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="44" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="46"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="83" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="85"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="44" t="s">
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="81"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="46"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="44" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="45"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="46"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="73" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="45"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="75"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="44" t="s">
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="71"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="46"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="44" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="45"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="46"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="73" t="s">
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="45"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="75"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="44" t="s">
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="71"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="46"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
